--- a/Test Results/Note_Frequency_Test/note_frequency_test.xlsx
+++ b/Test Results/Note_Frequency_Test/note_frequency_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houdi\Documents\GitHub\Teensy-Synth-Project\Test Results\Note_Frequency_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE758092-A866-47E5-AE91-95BFA443C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4B8C69-32C1-4AA9-8ED2-836181E1D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78659EBC-94B5-4E4F-8039-E23087B3F314}"/>
   </bookViews>
@@ -292,6 +292,1559 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured Frequency vs. Expected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Measured Frequency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>109.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>293.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>311.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>394.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>370.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>415.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>439.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>494.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>523.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>554.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>589.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>660.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>698.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>741.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>783.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>830.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>880.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>932.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>988.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3135</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3322</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3521</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>261.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>293.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>311.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>349.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>369.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>415.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>466.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>493.88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>523.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>554.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>587.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>622.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>659.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>698.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>739.99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>783.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>830.61</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>932.33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>987.77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1046.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1108.73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1174.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1244.51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1318.51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1396.91</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1479.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1567.98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1661.22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1864.66</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1975.53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2217.46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2349.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2489.02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2637.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2793.83</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2959.96</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3135.96</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3322.44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3729.31</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3951.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E4E-442E-BB97-702AD2C55DAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="692809984"/>
+        <c:axId val="692808064"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Expected Frequency</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="63"/>
+                      <c:pt idx="0">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>116.54</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>123.47</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>130.81</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>138.59</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>146.83000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>155.56</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>164.81</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>174.61</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>185</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>196</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>207.65</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>233.08</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>246.94</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>261.63</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>277.18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>293.66000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>311.13</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>329.63</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>349.23</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>369.99</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>392</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>415.3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>440</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>466.16</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>493.88</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>523.25</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>554.37</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>587.33000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>622.25</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>659.26</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>698.46</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>739.99</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>783.99</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>830.61</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>880</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>932.33</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>987.77</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1046.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1108.73</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1174.6600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1244.51</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1318.51</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1396.91</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1479.98</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1567.98</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1661.22</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1760</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1864.66</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1975.53</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2093</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2217.46</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2349.3200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2489.02</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2637.02</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2793.83</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2959.96</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>3135.96</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>3322.44</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>3520</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>3729.31</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>3951.07</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6E4E-442E-BB97-702AD2C55DAF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="692809984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692808064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="692808064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692809984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BDA830-83FB-6203-D843-E249EC3410FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C0EB3A-5A14-4CCF-BADC-DD145BB6FDE9}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +2866,7 @@
         <v>3729.31</v>
       </c>
       <c r="C63">
-        <v>3173</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,5 +2883,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>